--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>تسجيل دخول</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>دعاية واعلان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطلوب صفحه لتفاصيل الاعلان </t>
   </si>
 </sst>
 </file>
@@ -149,14 +152,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G5:O26"/>
+  <dimension ref="G5:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -455,77 +458,77 @@
   </cols>
   <sheetData>
     <row r="5" spans="10:15">
-      <c r="K5" s="2"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="10:15">
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="10:15">
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="10:15">
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="10:15">
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="10:15">
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="10:15">
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="10:15">
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="10:15">
       <c r="L13" s="5" t="s">
@@ -535,21 +538,21 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="10:15">
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="10:15">
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="10:15">
       <c r="K16" t="s">
@@ -557,60 +560,60 @@
       </c>
     </row>
     <row r="17" spans="7:14">
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="7:14">
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="7:14">
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="7:14">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="7:14">
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -618,21 +621,26 @@
       <c r="G24" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2">
         <v>0.01</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="7:14">
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="30" spans="7:14">
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
